--- a/DataExtraction/Extracted Data/RQ2_RQ3/extraction_Q2_Q3_v1.0.0.xlsx
+++ b/DataExtraction/Extracted Data/RQ2_RQ3/extraction_Q2_Q3_v1.0.0.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trannguyen/Documents/CodeProjects/BC_IoT_SLR/DataExtraction/Extracted Data/RQ2_RQ3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trannguyen/Documents/CodeProjects/BC-IoT_SLR/BC_IoT_SLR/DataExtraction/Extracted Data/RQ2_RQ3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E33ED9A-CE6F-4E43-90D4-4EB50C2705D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F58527-0701-1844-B250-5AE0821FC0A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="994" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="994" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ2.1" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,13 @@
     <sheet name="RQ3" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RQ2.1'!$F$1:$F$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'RQ2.2'!$F$1:$I$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'RQ3'!$F$1:$F$91</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="40" r:id="rId6"/>
+    <pivotCache cacheId="12" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="503">
   <si>
     <t>Paper ID</t>
   </si>
@@ -1029,9 +1031,6 @@
   </si>
   <si>
     <t>Hierarchical mining</t>
-  </si>
-  <si>
-    <t>Resource exchange record</t>
   </si>
   <si>
     <t>Device Authentication</t>
@@ -1095,12 +1094,6 @@
     <t>Business process orchestrator</t>
   </si>
   <si>
-    <t>Service Description; Service interaction records; SDN Flow Tables</t>
-  </si>
-  <si>
-    <t>Service interaction records; Resource exchange record</t>
-  </si>
-  <si>
     <t>Sensor Readings; Service interaction records</t>
   </si>
   <si>
@@ -1558,6 +1551,12 @@
   </si>
   <si>
     <t>Exchange of services requires off-chain validation</t>
+  </si>
+  <si>
+    <t>Service Descriptions; Service interaction records; SDN Flow Tables</t>
+  </si>
+  <si>
+    <t>Service interaction records; Resource exchange records</t>
   </si>
 </sst>
 </file>
@@ -5121,7 +5120,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22DE193-0180-7A4C-90A9-5D7BE8497014}" name="PivotTable1" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22DE193-0180-7A4C-90A9-5D7BE8497014}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -5654,9 +5653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView windowProtection="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F38" sqref="F38"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5710,7 +5709,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>286</v>
@@ -5733,7 +5732,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>286</v>
@@ -5756,7 +5755,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>323</v>
@@ -5779,7 +5778,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>286</v>
@@ -5802,7 +5801,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>286</v>
@@ -5825,7 +5824,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>286</v>
@@ -5848,7 +5847,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>286</v>
@@ -5871,7 +5870,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>269</v>
@@ -5894,7 +5893,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>286</v>
@@ -5917,10 +5916,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -5940,7 +5939,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>286</v>
@@ -5963,7 +5962,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>286</v>
@@ -5986,7 +5985,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>286</v>
@@ -6009,7 +6008,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>286</v>
@@ -6032,7 +6031,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>286</v>
@@ -6055,7 +6054,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>286</v>
@@ -6078,7 +6077,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>286</v>
@@ -6101,7 +6100,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>286</v>
@@ -6124,7 +6123,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>270</v>
@@ -6147,7 +6146,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>270</v>
@@ -6170,7 +6169,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>286</v>
@@ -6193,10 +6192,10 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="128" x14ac:dyDescent="0.2">
@@ -6216,7 +6215,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>286</v>
@@ -6239,7 +6238,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>286</v>
@@ -6262,7 +6261,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>286</v>
@@ -6285,7 +6284,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>286</v>
@@ -6308,7 +6307,7 @@
         <v>8</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>286</v>
@@ -6331,7 +6330,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>286</v>
@@ -6354,7 +6353,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>286</v>
@@ -6377,10 +6376,10 @@
         <v>8</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -6400,7 +6399,7 @@
         <v>12</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>321</v>
@@ -6423,7 +6422,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>270</v>
@@ -6446,7 +6445,7 @@
         <v>12</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>286</v>
@@ -6469,7 +6468,7 @@
         <v>8</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>269</v>
@@ -6492,7 +6491,7 @@
         <v>8</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>270</v>
@@ -6515,7 +6514,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>286</v>
@@ -6538,7 +6537,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>286</v>
@@ -6561,7 +6560,7 @@
         <v>8</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>286</v>
@@ -6584,7 +6583,7 @@
         <v>8</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>286</v>
@@ -6607,7 +6606,7 @@
         <v>23</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>286</v>
@@ -6630,7 +6629,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>286</v>
@@ -6653,7 +6652,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>286</v>
@@ -6676,7 +6675,7 @@
         <v>8</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>270</v>
@@ -6699,7 +6698,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>286</v>
@@ -6722,7 +6721,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>323</v>
@@ -6745,7 +6744,7 @@
         <v>8</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>286</v>
@@ -6768,7 +6767,7 @@
         <v>23</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>286</v>
@@ -6791,7 +6790,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>286</v>
@@ -6814,7 +6813,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>286</v>
@@ -6837,7 +6836,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>286</v>
@@ -6860,7 +6859,7 @@
         <v>8</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>270</v>
@@ -6883,7 +6882,7 @@
         <v>8</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>269</v>
@@ -6906,7 +6905,7 @@
         <v>8</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>270</v>
@@ -6929,7 +6928,7 @@
         <v>8</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>286</v>
@@ -6952,7 +6951,7 @@
         <v>12</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>321</v>
@@ -6975,7 +6974,7 @@
         <v>8</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>286</v>
@@ -6998,10 +6997,10 @@
         <v>8</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -7021,7 +7020,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>286</v>
@@ -7044,7 +7043,7 @@
         <v>12</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>286</v>
@@ -7067,7 +7066,7 @@
         <v>12</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>270</v>
@@ -7090,7 +7089,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>286</v>
@@ -7113,7 +7112,7 @@
         <v>12</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>270</v>
@@ -7136,7 +7135,7 @@
         <v>12</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>270</v>
@@ -7159,7 +7158,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>286</v>
@@ -7182,7 +7181,7 @@
         <v>8</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>286</v>
@@ -7205,7 +7204,7 @@
         <v>8</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>286</v>
@@ -7228,7 +7227,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>286</v>
@@ -7251,7 +7250,7 @@
         <v>8</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>270</v>
@@ -7274,7 +7273,7 @@
         <v>8</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>269</v>
@@ -7297,7 +7296,7 @@
         <v>8</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>286</v>
@@ -7320,7 +7319,7 @@
         <v>12</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>269</v>
@@ -7343,7 +7342,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>286</v>
@@ -7366,7 +7365,7 @@
         <v>12</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>270</v>
@@ -7389,7 +7388,7 @@
         <v>8</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>270</v>
@@ -7412,7 +7411,7 @@
         <v>8</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>321</v>
@@ -7435,7 +7434,7 @@
         <v>8</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>286</v>
@@ -7458,7 +7457,7 @@
         <v>8</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>286</v>
@@ -7481,7 +7480,7 @@
         <v>12</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>286</v>
@@ -7504,7 +7503,7 @@
         <v>12</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>286</v>
@@ -7527,7 +7526,7 @@
         <v>8</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>286</v>
@@ -7550,7 +7549,7 @@
         <v>8</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>286</v>
@@ -7573,7 +7572,7 @@
         <v>12</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>270</v>
@@ -7596,7 +7595,7 @@
         <v>237</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>321</v>
@@ -7619,7 +7618,7 @@
         <v>12</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>286</v>
@@ -7642,7 +7641,7 @@
         <v>12</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>270</v>
@@ -7665,10 +7664,10 @@
         <v>8</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7688,7 +7687,7 @@
         <v>12</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>286</v>
@@ -7711,7 +7710,7 @@
         <v>12</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>286</v>
@@ -7734,7 +7733,7 @@
         <v>12</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>323</v>
@@ -7757,13 +7756,14 @@
         <v>8</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>286</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F91" xr:uid="{255D41AB-EB85-FA4F-BBED-5116EA474DB5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -7773,9 +7773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319240B9-4870-494A-A276-E36B79402EDE}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H17" sqref="H17"/>
+      <selection pane="topRight" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7834,7 +7834,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>271</v>
@@ -7843,7 +7843,7 @@
         <v>271</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -7892,7 +7892,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>271</v>
@@ -7921,7 +7921,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>291</v>
@@ -7950,13 +7950,13 @@
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>271</v>
@@ -7979,7 +7979,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>271</v>
@@ -8008,7 +8008,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>271</v>
@@ -8037,7 +8037,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>271</v>
@@ -8046,7 +8046,7 @@
         <v>271</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="80" x14ac:dyDescent="0.2">
@@ -8066,7 +8066,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>271</v>
@@ -8095,10 +8095,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>271</v>
@@ -8124,7 +8124,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>271</v>
@@ -8153,7 +8153,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>271</v>
@@ -8182,13 +8182,13 @@
         <v>8</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>271</v>
@@ -8211,7 +8211,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>271</v>
@@ -8240,7 +8240,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>271</v>
@@ -8269,7 +8269,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>271</v>
@@ -8327,7 +8327,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>271</v>
@@ -8362,7 +8362,7 @@
         <v>271</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>301</v>
@@ -8385,16 +8385,16 @@
         <v>8</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -8420,7 +8420,7 @@
         <v>271</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>271</v>
@@ -8443,7 +8443,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>271</v>
@@ -8472,13 +8472,13 @@
         <v>8</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>271</v>
@@ -8501,7 +8501,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>271</v>
@@ -8530,16 +8530,16 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="64" x14ac:dyDescent="0.2">
@@ -8559,13 +8559,13 @@
         <v>8</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>271</v>
@@ -8588,7 +8588,7 @@
         <v>8</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>271</v>
@@ -8618,7 +8618,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>271</v>
@@ -8653,7 +8653,7 @@
         <v>271</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>271</v>
@@ -8676,13 +8676,13 @@
         <v>8</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>271</v>
@@ -8705,7 +8705,7 @@
         <v>12</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>271</v>
@@ -8763,13 +8763,13 @@
         <v>12</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>271</v>
@@ -8792,16 +8792,16 @@
         <v>8</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -8821,7 +8821,7 @@
         <v>8</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>271</v>
@@ -8830,7 +8830,7 @@
         <v>271</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="80" x14ac:dyDescent="0.2">
@@ -8850,13 +8850,13 @@
         <v>12</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>271</v>
@@ -8879,7 +8879,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>271</v>
@@ -8908,7 +8908,7 @@
         <v>8</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>271</v>
@@ -8937,7 +8937,7 @@
         <v>8</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>271</v>
@@ -8966,16 +8966,16 @@
         <v>23</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -8995,7 +8995,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>271</v>
@@ -9024,13 +9024,13 @@
         <v>8</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>320</v>
@@ -9053,7 +9053,7 @@
         <v>8</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>271</v>
@@ -9088,7 +9088,7 @@
         <v>271</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>320</v>
@@ -9111,13 +9111,13 @@
         <v>8</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>351</v>
+        <v>502</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>271</v>
@@ -9140,7 +9140,7 @@
         <v>8</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>271</v>
@@ -9169,7 +9169,7 @@
         <v>23</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>271</v>
@@ -9198,7 +9198,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>300</v>
@@ -9207,7 +9207,7 @@
         <v>271</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="80" x14ac:dyDescent="0.2">
@@ -9227,7 +9227,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>271</v>
@@ -9256,7 +9256,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>271</v>
@@ -9285,7 +9285,7 @@
         <v>8</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>271</v>
@@ -9314,13 +9314,13 @@
         <v>8</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>271</v>
@@ -9407,7 +9407,7 @@
         <v>271</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>271</v>
@@ -9430,7 +9430,7 @@
         <v>8</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>271</v>
@@ -9465,7 +9465,7 @@
         <v>271</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>271</v>
@@ -9488,7 +9488,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>271</v>
@@ -9517,7 +9517,7 @@
         <v>12</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>271</v>
@@ -9526,7 +9526,7 @@
         <v>271</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -9575,7 +9575,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>271</v>
@@ -9633,7 +9633,7 @@
         <v>12</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>271</v>
@@ -9662,7 +9662,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>271</v>
@@ -9671,7 +9671,7 @@
         <v>271</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="80" x14ac:dyDescent="0.2">
@@ -9720,13 +9720,13 @@
         <v>8</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>271</v>
@@ -9749,16 +9749,16 @@
         <v>23</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -9807,7 +9807,7 @@
         <v>8</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>271</v>
@@ -9842,7 +9842,7 @@
         <v>271</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>271</v>
@@ -9865,7 +9865,7 @@
         <v>12</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>350</v>
+        <v>501</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>271</v>
@@ -9894,7 +9894,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>271</v>
@@ -9952,7 +9952,7 @@
         <v>8</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>271</v>
@@ -10010,16 +10010,16 @@
         <v>8</v>
       </c>
       <c r="F77" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="G77" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>361</v>
-      </c>
       <c r="I77" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -10045,7 +10045,7 @@
         <v>271</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>271</v>
@@ -10097,7 +10097,7 @@
         <v>12</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>271</v>
@@ -10106,7 +10106,7 @@
         <v>307</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -10126,7 +10126,7 @@
         <v>8</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>271</v>
@@ -10155,7 +10155,7 @@
         <v>8</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>271</v>
@@ -10184,7 +10184,7 @@
         <v>12</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>271</v>
@@ -10219,7 +10219,7 @@
         <v>271</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>271</v>
@@ -10242,7 +10242,7 @@
         <v>12</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>271</v>
@@ -10271,7 +10271,7 @@
         <v>12</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>271</v>
@@ -10300,7 +10300,7 @@
         <v>8</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>271</v>
@@ -10329,13 +10329,13 @@
         <v>12</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>271</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>271</v>
@@ -10364,7 +10364,7 @@
         <v>271</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>271</v>
@@ -10387,7 +10387,7 @@
         <v>12</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>271</v>
@@ -10416,7 +10416,7 @@
         <v>8</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>271</v>
@@ -10429,6 +10429,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:I91" xr:uid="{FE6D87F2-CE9C-B04A-837E-812D0716D13A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -10495,7 +10496,7 @@
         <v>268</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -10527,7 +10528,7 @@
         <v>310</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>279</v>
@@ -10536,7 +10537,7 @@
         <v>271</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N2" s="16" t="str">
         <f>_xlfn.TEXTJOIN(" -- ", TRUE, G2:K2)</f>
@@ -10572,7 +10573,7 @@
         <v>271</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>279</v>
@@ -10581,7 +10582,7 @@
         <v>271</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N3" s="16" t="str">
         <f t="shared" ref="N3:N66" si="0">_xlfn.TEXTJOIN(" -- ", TRUE, G3:K3)</f>
@@ -10617,7 +10618,7 @@
         <v>271</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>298</v>
@@ -10626,7 +10627,7 @@
         <v>271</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N4" s="16" t="str">
         <f t="shared" si="0"/>
@@ -10656,7 +10657,7 @@
         <v>294</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>295</v>
@@ -10695,7 +10696,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>273</v>
@@ -10707,16 +10708,16 @@
         <v>275</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>271</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N6" s="16" t="str">
         <f t="shared" si="0"/>
@@ -10752,7 +10753,7 @@
         <v>271</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>298</v>
@@ -10761,7 +10762,7 @@
         <v>271</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N7" s="16" t="str">
         <f t="shared" si="0"/>
@@ -10785,7 +10786,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>273</v>
@@ -10797,7 +10798,7 @@
         <v>271</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>279</v>
@@ -10806,7 +10807,7 @@
         <v>271</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N8" s="16" t="str">
         <f t="shared" si="0"/>
@@ -10842,10 +10843,10 @@
         <v>271</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>271</v>
@@ -10887,7 +10888,7 @@
         <v>271</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>279</v>
@@ -10896,7 +10897,7 @@
         <v>271</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N10" s="16" t="str">
         <f t="shared" si="0"/>
@@ -10932,7 +10933,7 @@
         <v>271</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>279</v>
@@ -10971,7 +10972,7 @@
         <v>273</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>310</v>
@@ -11022,7 +11023,7 @@
         <v>271</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>279</v>
@@ -11067,7 +11068,7 @@
         <v>271</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>279</v>
@@ -11112,7 +11113,7 @@
         <v>271</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>305</v>
@@ -11121,7 +11122,7 @@
         <v>271</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N15" s="16" t="str">
         <f t="shared" si="0"/>
@@ -11157,7 +11158,7 @@
         <v>275</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>279</v>
@@ -11202,7 +11203,7 @@
         <v>271</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>279</v>
@@ -11247,7 +11248,7 @@
         <v>271</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>279</v>
@@ -11292,7 +11293,7 @@
         <v>271</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>279</v>
@@ -11301,7 +11302,7 @@
         <v>271</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N19" s="16" t="str">
         <f t="shared" si="0"/>
@@ -11337,7 +11338,7 @@
         <v>275</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>298</v>
@@ -11376,7 +11377,7 @@
         <v>273</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>295</v>
@@ -11427,7 +11428,7 @@
         <v>275</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>279</v>
@@ -11472,7 +11473,7 @@
         <v>275</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>279</v>
@@ -11517,7 +11518,7 @@
         <v>275</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>279</v>
@@ -11556,7 +11557,7 @@
         <v>273</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>295</v>
@@ -11607,7 +11608,7 @@
         <v>275</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>279</v>
@@ -11652,7 +11653,7 @@
         <v>275</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>305</v>
@@ -11697,7 +11698,7 @@
         <v>271</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>279</v>
@@ -11742,7 +11743,7 @@
         <v>271</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>305</v>
@@ -11787,7 +11788,7 @@
         <v>275</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>279</v>
@@ -11832,7 +11833,7 @@
         <v>275</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>279</v>
@@ -11877,7 +11878,7 @@
         <v>271</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>279</v>
@@ -11916,7 +11917,7 @@
         <v>273</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>310</v>
@@ -11967,7 +11968,7 @@
         <v>271</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>298</v>
@@ -12006,7 +12007,7 @@
         <v>273</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>310</v>
@@ -12057,7 +12058,7 @@
         <v>271</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>298</v>
@@ -12099,10 +12100,10 @@
         <v>274</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>279</v>
@@ -12141,7 +12142,7 @@
         <v>273</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>310</v>
@@ -12192,7 +12193,7 @@
         <v>271</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>279</v>
@@ -12237,7 +12238,7 @@
         <v>275</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>279</v>
@@ -12282,7 +12283,7 @@
         <v>275</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>279</v>
@@ -12336,7 +12337,7 @@
         <v>271</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N42" s="16" t="str">
         <f t="shared" si="0"/>
@@ -12372,7 +12373,7 @@
         <v>275</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>279</v>
@@ -12417,7 +12418,7 @@
         <v>275</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>298</v>
@@ -12456,13 +12457,13 @@
         <v>273</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>295</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>297</v>
@@ -12507,7 +12508,7 @@
         <v>275</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>279</v>
@@ -12552,7 +12553,7 @@
         <v>271</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>279</v>
@@ -12597,7 +12598,7 @@
         <v>275</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>279</v>
@@ -12642,7 +12643,7 @@
         <v>271</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>305</v>
@@ -12651,7 +12652,7 @@
         <v>271</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N49" s="16" t="str">
         <f t="shared" si="0"/>
@@ -12687,16 +12688,16 @@
         <v>295</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>271</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N50" s="16" t="str">
         <f t="shared" si="0"/>
@@ -12732,7 +12733,7 @@
         <v>310</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>297</v>
@@ -12777,7 +12778,7 @@
         <v>271</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>305</v>
@@ -12810,7 +12811,7 @@
         <v>8</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>273</v>
@@ -12822,10 +12823,10 @@
         <v>275</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L53" s="6" t="s">
         <v>271</v>
@@ -12867,7 +12868,7 @@
         <v>275</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>298</v>
@@ -12912,7 +12913,7 @@
         <v>275</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>279</v>
@@ -12957,7 +12958,7 @@
         <v>275</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>305</v>
@@ -13005,13 +13006,13 @@
         <v>296</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L57" s="6" t="s">
         <v>271</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N57" s="16" t="str">
         <f t="shared" si="0"/>
@@ -13047,7 +13048,7 @@
         <v>275</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>279</v>
@@ -13086,7 +13087,7 @@
         <v>273</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>295</v>
@@ -13137,7 +13138,7 @@
         <v>271</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>297</v>
@@ -13182,7 +13183,7 @@
         <v>275</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>279</v>
@@ -13227,7 +13228,7 @@
         <v>271</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>279</v>
@@ -13317,7 +13318,7 @@
         <v>271</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>279</v>
@@ -13350,7 +13351,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>273</v>
@@ -13362,7 +13363,7 @@
         <v>271</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K65" s="6" t="s">
         <v>279</v>
@@ -13407,7 +13408,7 @@
         <v>271</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>279</v>
@@ -13452,7 +13453,7 @@
         <v>275</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>279</v>
@@ -13491,13 +13492,13 @@
         <v>273</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>295</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>297</v>
@@ -13506,7 +13507,7 @@
         <v>271</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N68" s="16" t="str">
         <f t="shared" si="1"/>
@@ -13536,7 +13537,7 @@
         <v>273</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>310</v>
@@ -13587,7 +13588,7 @@
         <v>271</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>279</v>
@@ -13632,7 +13633,7 @@
         <v>275</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K71" s="6" t="s">
         <v>298</v>
@@ -13671,13 +13672,13 @@
         <v>273</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>275</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>279</v>
@@ -13722,7 +13723,7 @@
         <v>271</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K73" s="6" t="s">
         <v>279</v>
@@ -13812,7 +13813,7 @@
         <v>275</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K75" s="6" t="s">
         <v>279</v>
@@ -13857,7 +13858,7 @@
         <v>275</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K76" s="6" t="s">
         <v>305</v>
@@ -13902,10 +13903,10 @@
         <v>275</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L77" s="6" t="s">
         <v>271</v>
@@ -13947,7 +13948,7 @@
         <v>275</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K78" s="6" t="s">
         <v>305</v>
@@ -13980,7 +13981,7 @@
         <v>12</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>273</v>
@@ -13992,7 +13993,7 @@
         <v>271</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K79" s="6" t="s">
         <v>279</v>
@@ -14037,7 +14038,7 @@
         <v>271</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K80" s="6" t="s">
         <v>279</v>
@@ -14076,7 +14077,7 @@
         <v>273</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>310</v>
@@ -14127,7 +14128,7 @@
         <v>275</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K82" s="6" t="s">
         <v>298</v>
@@ -14136,7 +14137,7 @@
         <v>271</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N82" s="16" t="str">
         <f t="shared" si="1"/>
@@ -14172,7 +14173,7 @@
         <v>271</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K83" s="6" t="s">
         <v>305</v>
@@ -14217,7 +14218,7 @@
         <v>275</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K84" s="6" t="s">
         <v>279</v>
@@ -14256,7 +14257,7 @@
         <v>273</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>310</v>
@@ -14307,7 +14308,7 @@
         <v>271</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K86" s="6" t="s">
         <v>279</v>
@@ -14316,7 +14317,7 @@
         <v>271</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N86" s="16" t="str">
         <f t="shared" si="1"/>
@@ -14352,7 +14353,7 @@
         <v>271</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>279</v>
@@ -14397,7 +14398,7 @@
         <v>275</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K88" s="6" t="s">
         <v>305</v>
@@ -14442,7 +14443,7 @@
         <v>275</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K89" s="6" t="s">
         <v>279</v>
@@ -14487,7 +14488,7 @@
         <v>275</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K90" s="6" t="s">
         <v>279</v>
@@ -14532,7 +14533,7 @@
         <v>271</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K91" s="6" t="s">
         <v>279</v>
@@ -14571,15 +14572,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B4" s="20">
         <v>25</v>
@@ -14587,7 +14588,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B5" s="20">
         <v>20</v>
@@ -14595,7 +14596,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B6" s="20">
         <v>8</v>
@@ -14603,7 +14604,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B7" s="20">
         <v>7</v>
@@ -14611,7 +14612,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B8" s="20">
         <v>5</v>
@@ -14619,7 +14620,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B9" s="20">
         <v>3</v>
@@ -14627,7 +14628,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B10" s="20">
         <v>2</v>
@@ -14635,7 +14636,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B11" s="20">
         <v>2</v>
@@ -14643,7 +14644,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B12" s="20">
         <v>1</v>
@@ -14651,7 +14652,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B13" s="20">
         <v>1</v>
@@ -14659,7 +14660,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B14" s="20">
         <v>1</v>
@@ -14667,7 +14668,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B15" s="20">
         <v>1</v>
@@ -14675,7 +14676,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B16" s="20">
         <v>1</v>
@@ -14683,7 +14684,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B17" s="20">
         <v>1</v>
@@ -14691,7 +14692,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B18" s="20">
         <v>1</v>
@@ -14699,7 +14700,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B19" s="20">
         <v>1</v>
@@ -14707,7 +14708,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B20" s="20">
         <v>1</v>
@@ -14715,7 +14716,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B21" s="20">
         <v>1</v>
@@ -14723,7 +14724,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B22" s="20">
         <v>1</v>
@@ -14731,7 +14732,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B23" s="20">
         <v>1</v>
@@ -14739,7 +14740,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B24" s="20">
         <v>1</v>
@@ -14747,7 +14748,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B25" s="20">
         <v>1</v>
@@ -14755,7 +14756,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B26" s="20">
         <v>1</v>
@@ -14763,7 +14764,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B27" s="20">
         <v>1</v>
@@ -14771,7 +14772,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B28" s="20">
         <v>1</v>
@@ -14779,7 +14780,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B29" s="20">
         <v>1</v>
@@ -14787,7 +14788,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B30" s="20">
         <v>90</v>
@@ -14804,7 +14805,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F46" sqref="F46"/>
     </sheetView>
@@ -14859,10 +14860,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -14882,10 +14883,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -14905,10 +14906,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -14928,10 +14929,10 @@
         <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -14951,10 +14952,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -14974,10 +14975,10 @@
         <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -14997,10 +14998,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
@@ -15020,10 +15021,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -15043,10 +15044,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -15066,10 +15067,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15089,10 +15090,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15112,10 +15113,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -15135,10 +15136,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15161,7 +15162,7 @@
         <v>314</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15181,10 +15182,10 @@
         <v>8</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -15204,10 +15205,10 @@
         <v>23</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15230,7 +15231,7 @@
         <v>314</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15250,10 +15251,10 @@
         <v>8</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15273,10 +15274,10 @@
         <v>8</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15296,10 +15297,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -15319,10 +15320,10 @@
         <v>8</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -15342,10 +15343,10 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -15365,10 +15366,10 @@
         <v>8</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -15411,10 +15412,10 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -15434,10 +15435,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15457,10 +15458,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -15480,10 +15481,10 @@
         <v>8</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15503,10 +15504,10 @@
         <v>23</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15529,7 +15530,7 @@
         <v>312</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -15549,10 +15550,10 @@
         <v>12</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -15572,10 +15573,10 @@
         <v>12</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -15595,10 +15596,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="160" hidden="1" x14ac:dyDescent="0.2">
@@ -15618,10 +15619,10 @@
         <v>8</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -15641,10 +15642,10 @@
         <v>8</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15664,10 +15665,10 @@
         <v>12</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15710,10 +15711,10 @@
         <v>8</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15733,10 +15734,10 @@
         <v>8</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15756,10 +15757,10 @@
         <v>23</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15779,10 +15780,10 @@
         <v>8</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15802,10 +15803,10 @@
         <v>8</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15825,10 +15826,10 @@
         <v>8</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15848,10 +15849,10 @@
         <v>12</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -15894,10 +15895,10 @@
         <v>8</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15917,10 +15918,10 @@
         <v>23</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -15940,10 +15941,10 @@
         <v>12</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15963,10 +15964,10 @@
         <v>12</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -15986,10 +15987,10 @@
         <v>12</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
@@ -16032,10 +16033,10 @@
         <v>8</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -16055,10 +16056,10 @@
         <v>8</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
@@ -16078,10 +16079,10 @@
         <v>8</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -16101,10 +16102,10 @@
         <v>12</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -16124,10 +16125,10 @@
         <v>8</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -16147,10 +16148,10 @@
         <v>8</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -16170,10 +16171,10 @@
         <v>8</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -16193,10 +16194,10 @@
         <v>12</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16219,7 +16220,7 @@
         <v>314</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -16239,10 +16240,10 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16262,10 +16263,10 @@
         <v>12</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -16308,10 +16309,10 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
@@ -16331,10 +16332,10 @@
         <v>8</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -16354,10 +16355,10 @@
         <v>8</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -16377,10 +16378,10 @@
         <v>23</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16423,10 +16424,10 @@
         <v>8</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
@@ -16446,10 +16447,10 @@
         <v>8</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -16492,10 +16493,10 @@
         <v>12</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -16515,10 +16516,10 @@
         <v>12</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16538,10 +16539,10 @@
         <v>8</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -16561,10 +16562,10 @@
         <v>8</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -16607,10 +16608,10 @@
         <v>8</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16630,10 +16631,10 @@
         <v>12</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16653,10 +16654,10 @@
         <v>12</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -16676,10 +16677,10 @@
         <v>8</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -16699,10 +16700,10 @@
         <v>8</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -16722,10 +16723,10 @@
         <v>12</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -16745,10 +16746,10 @@
         <v>237</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -16768,10 +16769,10 @@
         <v>12</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16791,10 +16792,10 @@
         <v>12</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -16814,10 +16815,10 @@
         <v>8</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16837,10 +16838,10 @@
         <v>12</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -16860,10 +16861,10 @@
         <v>12</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16906,10 +16907,10 @@
         <v>8</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/DataExtraction/Extracted Data/RQ2_RQ3/extraction_Q2_Q3_v1.0.0.xlsx
+++ b/DataExtraction/Extracted Data/RQ2_RQ3/extraction_Q2_Q3_v1.0.0.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trannguyen/Documents/CodeProjects/BC-IoT_SLR/BC_IoT_SLR/DataExtraction/Extracted Data/RQ2_RQ3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F58527-0701-1844-B250-5AE0821FC0A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3AD098-FC38-AA45-B5E3-3B5A4F644F31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="994" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="994" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ2.1" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RQ2.1'!$F$1:$F$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'RQ2.2'!$F$1:$I$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'RQ3'!$F$1:$F$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'RQ2.3'!$F$1:$M$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'RQ3'!$F$1:$G$91</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId6"/>
+    <pivotCache cacheId="19" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="481">
   <si>
     <t>Paper ID</t>
   </si>
@@ -853,9 +854,6 @@
     <t>Development Technology</t>
   </si>
   <si>
-    <t>Cloud; Fog</t>
-  </si>
-  <si>
     <t>Fog</t>
   </si>
   <si>
@@ -1009,13 +1007,7 @@
     <t>Reputation score calculation</t>
   </si>
   <si>
-    <t>Cloud-Full &amp; Fog-LW</t>
-  </si>
-  <si>
     <t>Run lightweight nodes on IoT devices</t>
-  </si>
-  <si>
-    <t>Cloud-Full &amp; Edge-LW</t>
   </si>
   <si>
     <t>Contract between resource providers and consumers; Multi-party computation protocol</t>
@@ -1146,9 +1138,6 @@
     <t>Business process orchestrator; Digital Twins of IoT devices</t>
   </si>
   <si>
-    <t>Fog-Full &amp; Edge-LW</t>
-  </si>
-  <si>
     <t>Split-virtual machine architecture</t>
   </si>
   <si>
@@ -1267,9 +1256,6 @@
     <t xml:space="preserve">Device, Data, and Service Authorisation </t>
   </si>
   <si>
-    <t>Cloud; Edge</t>
-  </si>
-  <si>
     <t>Resource exchange records; Service descriptions</t>
   </si>
   <si>
@@ -1340,9 +1326,6 @@
     <t>Integrate side-chains with a consortium chain.</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Processing placement records; Data placement records; Device interaction records</t>
   </si>
   <si>
@@ -1451,36 +1434,9 @@
     <t>account &amp; UTXO</t>
   </si>
   <si>
-    <t>blockchain -- TX Log -- installed -- PBFT -- Private</t>
-  </si>
-  <si>
     <t>Blockchain -- TX Log -- installed -- PBFT -- Consortium</t>
   </si>
   <si>
-    <t>Blockchain -- UTXO -- N/A -- None -- Public; Private</t>
-  </si>
-  <si>
-    <t>blockchain -- account -- on-chain -- Proof-of-stake -- Public</t>
-  </si>
-  <si>
-    <t>blockchain -- account -- on-chain -- PBFT -- private</t>
-  </si>
-  <si>
-    <t>blockchain -- TX Log -- installed -- YAC -- Consortium</t>
-  </si>
-  <si>
-    <t>blockchain -- UTXO -- N/A -- Proof-of-rule -- Public</t>
-  </si>
-  <si>
-    <t>blockchain -- UTXO -- N/A -- PBFT -- Consortium</t>
-  </si>
-  <si>
-    <t>blockchain -- account -- on-chain -- Proof-of-stake -- Private</t>
-  </si>
-  <si>
-    <t>Blockchain -- UTXO -- N/A -- PBFT -- Private</t>
-  </si>
-  <si>
     <t>Proof-of-work Variant</t>
   </si>
   <si>
@@ -1499,54 +1455,18 @@
     <t>PoW+PoS</t>
   </si>
   <si>
-    <t>blockchain -- account -- Installed -- Proof-of-work Variant -- Consortium</t>
-  </si>
-  <si>
-    <t>blockchain -- account -- N/A -- Proof-of-work Variant -- Consortium</t>
-  </si>
-  <si>
-    <t>blockchain -- account -- N/A -- Proof-of-work Variant -- Private</t>
-  </si>
-  <si>
     <t>blockchain -- account -- N/A -- Proof-of-work Variant -- Public</t>
   </si>
   <si>
-    <t>blockchain -- account -- on-chain -- Proof-of-Trust; Proof-of-Luck; Proof-of-work Variant -- Public; Private</t>
-  </si>
-  <si>
     <t>blockchain -- account -- on-chain -- Proof-of-work Variant -- Private</t>
   </si>
   <si>
     <t>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</t>
   </si>
   <si>
-    <t>blockchain -- account -- on-chain -- Proof-of-work Variant; Proof-of-stake -- Consortium; Private</t>
-  </si>
-  <si>
-    <t>blockchain -- account &amp; UTXO -- on-chain -- PoW+PoS; proof-of-rule -- Public</t>
-  </si>
-  <si>
-    <t>blockchain -- TX Log -- installed -- Proof-of-work Variant; Proof-of-space -- Consortium</t>
-  </si>
-  <si>
-    <t>blockchain -- UTXO -- installed -- Proof-of-work Variant -- consortium</t>
-  </si>
-  <si>
-    <t>blockchain -- UTXO -- Installed -- Proof-of-work Variant -- Public</t>
-  </si>
-  <si>
-    <t>blockchain -- UTXO -- N/A -- PoW+PoS -- Public</t>
-  </si>
-  <si>
-    <t>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Private</t>
-  </si>
-  <si>
     <t>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</t>
   </si>
   <si>
-    <t>mutable blockchain -- UTXO -- N/A -- None -- public</t>
-  </si>
-  <si>
     <t>Not addressed</t>
   </si>
   <si>
@@ -1557,6 +1477,21 @@
   </si>
   <si>
     <t>Service interaction records; Resource exchange records</t>
+  </si>
+  <si>
+    <t>Cloud-Full -- Edge-LW</t>
+  </si>
+  <si>
+    <t>Fog-Full -- Edge-LW</t>
+  </si>
+  <si>
+    <t>Cloud-Full -- Fog-LW</t>
+  </si>
+  <si>
+    <t>Cloud &amp; Fog</t>
+  </si>
+  <si>
+    <t>Cloud &amp; Edge</t>
   </si>
 </sst>
 </file>
@@ -2329,7 +2264,9 @@
             <a:tileRect/>
           </a:gradFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2427,7 +2364,9 @@
               <a:tileRect/>
             </a:gradFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2489,9 +2428,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$4:$A$30</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</c:v>
                 </c:pt>
@@ -2507,78 +2446,15 @@
                 <c:pt idx="4">
                   <c:v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Private</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>blockchain -- TX Log -- installed -- PBFT -- Private</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Private</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>blockchain -- account -- N/A -- Proof-of-work Variant -- Private</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>blockchain -- account -- on-chain -- PBFT -- private</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>blockchain -- UTXO -- N/A -- PBFT -- Consortium</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>blockchain -- UTXO -- Installed -- Proof-of-work Variant -- Public</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>blockchain -- account -- N/A -- Proof-of-work Variant -- Consortium</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>blockchain -- UTXO -- N/A -- PoW+PoS -- Public</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>blockchain -- account -- on-chain -- Proof-of-work Variant; Proof-of-stake -- Consortium; Private</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>blockchain -- UTXO -- installed -- Proof-of-work Variant -- consortium</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>blockchain -- account &amp; UTXO -- on-chain -- PoW+PoS; proof-of-rule -- Public</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Blockchain -- UTXO -- N/A -- None -- Public; Private</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>blockchain -- account -- Installed -- Proof-of-work Variant -- Consortium</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Blockchain -- UTXO -- N/A -- PBFT -- Private</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>mutable blockchain -- UTXO -- N/A -- None -- public</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>blockchain -- UTXO -- N/A -- Proof-of-rule -- Public</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>blockchain -- account -- on-chain -- Proof-of-Trust; Proof-of-Luck; Proof-of-work Variant -- Public; Private</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>blockchain -- account -- on-chain -- Proof-of-stake -- Public</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>blockchain -- account -- on-chain -- Proof-of-stake -- Private</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>blockchain -- TX Log -- installed -- YAC -- Consortium</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>blockchain -- TX Log -- installed -- Proof-of-work Variant; Proof-of-space -- Consortium</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$30</c:f>
+              <c:f>Sheet1!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -2593,69 +2469,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2675,8 +2488,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="326"/>
-        <c:overlap val="-58"/>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-29"/>
         <c:axId val="41772416"/>
         <c:axId val="38996208"/>
       </c:barChart>
@@ -3507,15 +3320,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>2451100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5120,8 +4933,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22DE193-0180-7A4C-90A9-5D7BE8497014}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E22DE193-0180-7A4C-90A9-5D7BE8497014}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -5198,7 +5011,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+    <pivotField axis="axisRow" dataField="1" showAll="0" measureFilter="1" sortType="descending">
       <items count="27">
         <item x="14"/>
         <item x="18"/>
@@ -5242,7 +5055,7 @@
   <rowFields count="1">
     <field x="13"/>
   </rowFields>
-  <rowItems count="27">
+  <rowItems count="6">
     <i>
       <x v="9"/>
     </i>
@@ -5258,69 +5071,6 @@
     <i>
       <x v="8"/>
     </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -5331,8 +5081,26 @@
   <dataFields count="1">
     <dataField name="Count of Pattern" fld="13" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="3">
     <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5343,6 +5111,15 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="13" type="count" evalOrder="-1" id="5" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -5653,9 +5430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <selection pane="topRight" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5709,10 +5486,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -5732,10 +5509,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -5755,10 +5532,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>323</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -5778,10 +5555,10 @@
         <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -5801,10 +5578,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -5824,10 +5601,10 @@
         <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -5847,10 +5624,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="128" x14ac:dyDescent="0.2">
@@ -5870,10 +5647,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>269</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -5893,10 +5670,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -5916,10 +5693,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>406</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -5939,10 +5716,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -5962,10 +5739,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -5985,10 +5762,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -6008,10 +5785,10 @@
         <v>8</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6031,10 +5808,10 @@
         <v>8</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -6054,10 +5831,10 @@
         <v>23</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -6077,10 +5854,10 @@
         <v>8</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -6100,10 +5877,10 @@
         <v>8</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -6123,10 +5900,10 @@
         <v>8</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -6146,10 +5923,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -6169,10 +5946,10 @@
         <v>8</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -6192,10 +5969,10 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>406</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="128" x14ac:dyDescent="0.2">
@@ -6215,10 +5992,10 @@
         <v>8</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6238,10 +6015,10 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6261,10 +6038,10 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -6284,10 +6061,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6307,10 +6084,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -6330,10 +6107,10 @@
         <v>8</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -6353,10 +6130,10 @@
         <v>23</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -6376,10 +6153,10 @@
         <v>8</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>366</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -6399,10 +6176,10 @@
         <v>12</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>321</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6422,10 +6199,10 @@
         <v>12</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6445,10 +6222,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="160" x14ac:dyDescent="0.2">
@@ -6468,10 +6245,10 @@
         <v>8</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>269</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -6491,10 +6268,10 @@
         <v>8</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6514,10 +6291,10 @@
         <v>12</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -6537,10 +6314,10 @@
         <v>8</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -6560,10 +6337,10 @@
         <v>8</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -6583,10 +6360,10 @@
         <v>8</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -6606,10 +6383,10 @@
         <v>23</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -6629,10 +6406,10 @@
         <v>8</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -6652,10 +6429,10 @@
         <v>8</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -6675,10 +6452,10 @@
         <v>8</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6698,10 +6475,10 @@
         <v>12</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -6721,10 +6498,10 @@
         <v>8</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>323</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -6744,10 +6521,10 @@
         <v>8</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -6767,10 +6544,10 @@
         <v>23</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -6790,10 +6567,10 @@
         <v>12</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -6813,10 +6590,10 @@
         <v>12</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6836,10 +6613,10 @@
         <v>12</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="144" x14ac:dyDescent="0.2">
@@ -6859,10 +6636,10 @@
         <v>8</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -6882,10 +6659,10 @@
         <v>8</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>269</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -6905,10 +6682,10 @@
         <v>8</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="144" x14ac:dyDescent="0.2">
@@ -6928,10 +6705,10 @@
         <v>8</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6951,10 +6728,10 @@
         <v>12</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>321</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6974,10 +6751,10 @@
         <v>8</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -6997,10 +6774,10 @@
         <v>8</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>430</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -7020,10 +6797,10 @@
         <v>8</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -7043,10 +6820,10 @@
         <v>12</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7066,10 +6843,10 @@
         <v>12</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7089,10 +6866,10 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -7112,10 +6889,10 @@
         <v>12</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -7135,10 +6912,10 @@
         <v>12</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7158,10 +6935,10 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="128" x14ac:dyDescent="0.2">
@@ -7181,10 +6958,10 @@
         <v>8</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -7204,10 +6981,10 @@
         <v>8</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -7227,10 +7004,10 @@
         <v>23</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -7250,10 +7027,10 @@
         <v>8</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="208" x14ac:dyDescent="0.2">
@@ -7273,10 +7050,10 @@
         <v>8</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>269</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="128" x14ac:dyDescent="0.2">
@@ -7296,10 +7073,10 @@
         <v>8</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7319,10 +7096,10 @@
         <v>12</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>269</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7342,10 +7119,10 @@
         <v>12</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7365,10 +7142,10 @@
         <v>12</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -7388,10 +7165,10 @@
         <v>8</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -7411,10 +7188,10 @@
         <v>8</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>321</v>
+        <v>478</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -7434,10 +7211,10 @@
         <v>8</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -7457,10 +7234,10 @@
         <v>8</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7480,10 +7257,10 @@
         <v>12</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7503,10 +7280,10 @@
         <v>12</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -7526,10 +7303,10 @@
         <v>8</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -7549,10 +7326,10 @@
         <v>8</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -7572,10 +7349,10 @@
         <v>12</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7595,10 +7372,10 @@
         <v>237</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>321</v>
+        <v>478</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7618,10 +7395,10 @@
         <v>12</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7641,10 +7418,10 @@
         <v>12</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -7664,10 +7441,10 @@
         <v>8</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7687,10 +7464,10 @@
         <v>12</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -7710,10 +7487,10 @@
         <v>12</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7733,10 +7510,10 @@
         <v>12</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>323</v>
+        <v>476</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="144" x14ac:dyDescent="0.2">
@@ -7756,10 +7533,10 @@
         <v>8</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -7771,11 +7548,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319240B9-4870-494A-A276-E36B79402EDE}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F88" sqref="F88"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7817,7 +7595,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -7834,19 +7612,19 @@
         <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -7863,19 +7641,19 @@
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -7892,19 +7670,19 @@
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -7921,19 +7699,19 @@
         <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -7950,19 +7728,19 @@
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -7979,19 +7757,19 @@
         <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -8008,19 +7786,19 @@
         <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -8037,19 +7815,19 @@
         <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -8066,19 +7844,19 @@
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -8095,16 +7873,16 @@
         <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="80" x14ac:dyDescent="0.2">
@@ -8124,19 +7902,19 @@
         <v>8</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -8153,19 +7931,19 @@
         <v>8</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -8182,19 +7960,19 @@
         <v>8</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -8211,19 +7989,19 @@
         <v>8</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -8240,19 +8018,19 @@
         <v>8</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -8269,19 +8047,19 @@
         <v>23</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -8298,19 +8076,19 @@
         <v>8</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -8327,19 +8105,19 @@
         <v>8</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -8356,19 +8134,19 @@
         <v>8</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -8385,19 +8163,19 @@
         <v>8</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -8414,19 +8192,19 @@
         <v>8</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
@@ -8443,19 +8221,19 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -8472,19 +8250,19 @@
         <v>8</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -8501,19 +8279,19 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -8530,19 +8308,19 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
@@ -8559,19 +8337,19 @@
         <v>8</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
@@ -8588,20 +8366,20 @@
         <v>8</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -8618,19 +8396,19 @@
         <v>8</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
@@ -8647,19 +8425,19 @@
         <v>23</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
@@ -8676,19 +8454,19 @@
         <v>8</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
@@ -8705,19 +8483,19 @@
         <v>12</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
@@ -8734,19 +8512,19 @@
         <v>12</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -8763,16 +8541,16 @@
         <v>12</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="112" x14ac:dyDescent="0.2">
@@ -8792,19 +8570,19 @@
         <v>8</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>104</v>
       </c>
@@ -8821,19 +8599,19 @@
         <v>8</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
@@ -8850,19 +8628,19 @@
         <v>12</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
@@ -8879,19 +8657,19 @@
         <v>8</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H38" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
@@ -8908,19 +8686,19 @@
         <v>8</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>116</v>
       </c>
@@ -8937,19 +8715,19 @@
         <v>8</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>119</v>
       </c>
@@ -8966,19 +8744,19 @@
         <v>23</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>122</v>
       </c>
@@ -8995,19 +8773,19 @@
         <v>8</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>125</v>
       </c>
@@ -9024,19 +8802,19 @@
         <v>8</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>128</v>
       </c>
@@ -9053,19 +8831,19 @@
         <v>8</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>131</v>
       </c>
@@ -9082,19 +8860,19 @@
         <v>12</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>133</v>
       </c>
@@ -9111,19 +8889,19 @@
         <v>8</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>136</v>
       </c>
@@ -9140,19 +8918,19 @@
         <v>8</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>139</v>
       </c>
@@ -9169,19 +8947,19 @@
         <v>23</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>142</v>
       </c>
@@ -9198,19 +8976,19 @@
         <v>12</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>145</v>
       </c>
@@ -9227,19 +9005,19 @@
         <v>12</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>148</v>
       </c>
@@ -9256,19 +9034,19 @@
         <v>12</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>151</v>
       </c>
@@ -9285,19 +9063,19 @@
         <v>8</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>154</v>
       </c>
@@ -9314,19 +9092,19 @@
         <v>8</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
@@ -9343,19 +9121,19 @@
         <v>8</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>160</v>
       </c>
@@ -9372,19 +9150,19 @@
         <v>8</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>162</v>
       </c>
@@ -9401,19 +9179,19 @@
         <v>12</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>164</v>
       </c>
@@ -9430,19 +9208,19 @@
         <v>8</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>167</v>
       </c>
@@ -9459,19 +9237,19 @@
         <v>8</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>169</v>
       </c>
@@ -9488,19 +9266,19 @@
         <v>8</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>172</v>
       </c>
@@ -9517,19 +9295,19 @@
         <v>12</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
@@ -9546,19 +9324,19 @@
         <v>12</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>178</v>
       </c>
@@ -9575,19 +9353,19 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>180</v>
       </c>
@@ -9604,19 +9382,19 @@
         <v>12</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>182</v>
       </c>
@@ -9633,19 +9411,19 @@
         <v>12</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>184</v>
       </c>
@@ -9662,19 +9440,19 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>186</v>
       </c>
@@ -9691,19 +9469,19 @@
         <v>8</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>189</v>
       </c>
@@ -9720,19 +9498,19 @@
         <v>8</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>192</v>
       </c>
@@ -9749,19 +9527,19 @@
         <v>23</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>195</v>
       </c>
@@ -9778,19 +9556,19 @@
         <v>8</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>197</v>
       </c>
@@ -9807,19 +9585,19 @@
         <v>8</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>200</v>
       </c>
@@ -9836,19 +9614,19 @@
         <v>8</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>203</v>
       </c>
@@ -9865,19 +9643,19 @@
         <v>12</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>205</v>
       </c>
@@ -9894,19 +9672,19 @@
         <v>12</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>208</v>
       </c>
@@ -9923,19 +9701,19 @@
         <v>12</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>211</v>
       </c>
@@ -9952,19 +9730,19 @@
         <v>8</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>214</v>
       </c>
@@ -9981,19 +9759,19 @@
         <v>8</v>
       </c>
       <c r="F76" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="I76" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>217</v>
       </c>
@@ -10010,19 +9788,19 @@
         <v>8</v>
       </c>
       <c r="F77" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="G77" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>358</v>
-      </c>
       <c r="I77" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>219</v>
       </c>
@@ -10039,19 +9817,19 @@
         <v>8</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>222</v>
       </c>
@@ -10068,19 +9846,19 @@
         <v>12</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>224</v>
       </c>
@@ -10097,19 +9875,19 @@
         <v>12</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>226</v>
       </c>
@@ -10126,19 +9904,19 @@
         <v>8</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>229</v>
       </c>
@@ -10155,19 +9933,19 @@
         <v>8</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>232</v>
       </c>
@@ -10184,19 +9962,19 @@
         <v>12</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>234</v>
       </c>
@@ -10213,19 +9991,19 @@
         <v>237</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>238</v>
       </c>
@@ -10242,19 +10020,19 @@
         <v>12</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>241</v>
       </c>
@@ -10271,19 +10049,19 @@
         <v>12</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>243</v>
       </c>
@@ -10300,19 +10078,19 @@
         <v>8</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>246</v>
       </c>
@@ -10329,19 +10107,19 @@
         <v>12</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>249</v>
       </c>
@@ -10358,19 +10136,19 @@
         <v>12</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>251</v>
       </c>
@@ -10387,19 +10165,19 @@
         <v>12</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>253</v>
       </c>
@@ -10416,20 +10194,27 @@
         <v>8</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:I91" xr:uid="{FE6D87F2-CE9C-B04A-837E-812D0716D13A}"/>
+  <autoFilter ref="F1:I91" xr:uid="{FE6D87F2-CE9C-B04A-837E-812D0716D13A}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Sensor Reading Hashes; Device configurations"/>
+        <filter val="Sensor Readings; Device configurations; Device interaction records"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -10437,11 +10222,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3962EE67-A2B1-0B49-9F74-9CC75A10F5DD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K6" sqref="K6"/>
+      <selection pane="topRight" activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10472,7 +10258,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>262</v>
@@ -10496,10 +10282,10 @@
         <v>268</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -10519,32 +10305,32 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N2" s="16" t="str">
         <f>_xlfn.TEXTJOIN(" -- ", TRUE, G2:K2)</f>
         <v>blockchain -- UTXO -- Installed -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -10564,32 +10350,32 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N3" s="16" t="str">
         <f t="shared" ref="N3:N66" si="0">_xlfn.TEXTJOIN(" -- ", TRUE, G3:K3)</f>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -10609,32 +10395,32 @@
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Private</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -10654,32 +10440,32 @@
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="L5" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N5" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Blockchain -- TX Log -- installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -10696,35 +10482,35 @@
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant; Proof-of-stake -- Consortium; Private</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -10744,32 +10530,32 @@
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Private</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -10786,28 +10572,28 @@
         <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N8" s="16" t="str">
         <f t="shared" si="0"/>
@@ -10834,32 +10620,32 @@
         <v>2</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Blockchain -- UTXO -- N/A -- None -- Public; Private</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -10879,32 +10665,32 @@
         <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -10924,32 +10710,32 @@
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K11" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="N11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -10969,32 +10755,32 @@
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I12" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="N12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- TX Log -- Installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -11014,32 +10800,32 @@
         <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K13" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="N13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -11059,32 +10845,32 @@
         <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="I14" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -11104,32 +10890,32 @@
         <v>1</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- public</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -11149,32 +10935,32 @@
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J16" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -11194,32 +10980,32 @@
         <v>1</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K17" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="N17" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -11239,32 +11025,32 @@
         <v>1</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="I18" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -11284,32 +11070,32 @@
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N19" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -11329,32 +11115,32 @@
         <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J20" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Private</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -11374,32 +11160,32 @@
         <v>1</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I21" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="K21" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N21" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- TX Log -- installed -- PBFT -- Private</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -11419,32 +11205,32 @@
         <v>1</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J22" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
@@ -11464,32 +11250,32 @@
         <v>1</v>
       </c>
       <c r="G23" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J23" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -11509,32 +11295,32 @@
         <v>1</v>
       </c>
       <c r="G24" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J24" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -11554,32 +11340,32 @@
         <v>2</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I25" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="K25" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- TX Log -- installed -- PBFT -- Private</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -11599,32 +11385,32 @@
         <v>1</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J26" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
@@ -11644,32 +11430,32 @@
         <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J27" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N27" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- public</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
@@ -11689,32 +11475,32 @@
         <v>1</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K28" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M28" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="N28" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -11734,32 +11520,32 @@
         <v>2</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N29" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- public</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
@@ -11779,32 +11565,32 @@
         <v>1</v>
       </c>
       <c r="G30" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J30" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N30" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
@@ -11824,32 +11610,32 @@
         <v>1</v>
       </c>
       <c r="G31" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J31" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N31" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
@@ -11869,32 +11655,32 @@
         <v>1</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K32" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M32" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="N32" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
@@ -11914,32 +11700,32 @@
         <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I33" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="N33" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- TX Log -- Installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -11959,32 +11745,32 @@
         <v>1</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="I34" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N34" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- N/A -- Proof-of-work Variant -- Private</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="160" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
@@ -12004,32 +11790,32 @@
         <v>1</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I35" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M35" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="N35" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- TX Log -- Installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>104</v>
       </c>
@@ -12049,32 +11835,32 @@
         <v>1</v>
       </c>
       <c r="G36" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="I36" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N36" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- N/A -- Proof-of-work Variant -- Private</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
@@ -12094,32 +11880,32 @@
         <v>1</v>
       </c>
       <c r="G37" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="I37" s="6" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N37" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- On-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
@@ -12139,32 +11925,32 @@
         <v>1</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I38" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="N38" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- TX Log -- Installed -- PBFT -- Private</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
@@ -12184,32 +11970,32 @@
         <v>1</v>
       </c>
       <c r="G39" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="I39" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N39" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>116</v>
       </c>
@@ -12229,32 +12015,32 @@
         <v>1</v>
       </c>
       <c r="G40" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J40" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N40" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>119</v>
       </c>
@@ -12274,32 +12060,32 @@
         <v>1</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H41" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J41" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N41" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>122</v>
       </c>
@@ -12319,32 +12105,32 @@
         <v>1</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N42" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Blockchain -- UTXO -- N/A -- PBFT -- Private</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>125</v>
       </c>
@@ -12364,32 +12150,32 @@
         <v>1</v>
       </c>
       <c r="G43" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I43" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J43" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N43" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>128</v>
       </c>
@@ -12409,32 +12195,32 @@
         <v>1</v>
       </c>
       <c r="G44" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="I44" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I44" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J44" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N44" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Private</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>131</v>
       </c>
@@ -12454,32 +12240,32 @@
         <v>1</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N45" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- TX Log -- installed -- Proof-of-work Variant; Proof-of-space -- Consortium</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>133</v>
       </c>
@@ -12499,32 +12285,32 @@
         <v>1</v>
       </c>
       <c r="G46" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="I46" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J46" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N46" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>136</v>
       </c>
@@ -12544,32 +12330,32 @@
         <v>1</v>
       </c>
       <c r="G47" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="I47" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N47" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>139</v>
       </c>
@@ -12589,32 +12375,32 @@
         <v>1</v>
       </c>
       <c r="G48" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="I48" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I48" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J48" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N48" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>142</v>
       </c>
@@ -12634,32 +12420,32 @@
         <v>1</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N49" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- public</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>145</v>
       </c>
@@ -12679,32 +12465,32 @@
         <v>1</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N50" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- installed -- Proof-of-work Variant -- consortium</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>148</v>
       </c>
@@ -12724,25 +12510,25 @@
         <v>1</v>
       </c>
       <c r="G51" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="I51" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N51" s="16" t="str">
         <f t="shared" si="0"/>
@@ -12769,32 +12555,32 @@
         <v>1</v>
       </c>
       <c r="G52" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="K52" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="H52" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>305</v>
-      </c>
       <c r="L52" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N52" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mutable blockchain -- UTXO -- N/A -- None -- public</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>154</v>
       </c>
@@ -12811,35 +12597,35 @@
         <v>8</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G53" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="I53" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I53" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J53" s="6" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N53" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-Trust; Proof-of-Luck; Proof-of-work Variant -- Public; Private</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
@@ -12859,32 +12645,32 @@
         <v>1</v>
       </c>
       <c r="G54" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="I54" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I54" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J54" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N54" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Private</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="144" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>160</v>
       </c>
@@ -12904,32 +12690,32 @@
         <v>1</v>
       </c>
       <c r="G55" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="I55" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I55" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J55" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N55" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>162</v>
       </c>
@@ -12949,32 +12735,32 @@
         <v>1</v>
       </c>
       <c r="G56" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="I56" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I56" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J56" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N56" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- public</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>164</v>
       </c>
@@ -12994,32 +12780,32 @@
         <v>1</v>
       </c>
       <c r="G57" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H57" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="I57" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I57" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J57" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N57" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- PBFT -- private</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>167</v>
       </c>
@@ -13039,32 +12825,32 @@
         <v>1</v>
       </c>
       <c r="G58" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="I58" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I58" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J58" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N58" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>169</v>
       </c>
@@ -13084,32 +12870,32 @@
         <v>1</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I59" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J59" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="K59" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="K59" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="L59" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N59" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- TX Log -- installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>172</v>
       </c>
@@ -13129,32 +12915,32 @@
         <v>1</v>
       </c>
       <c r="G60" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H60" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="I60" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N60" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- N/A -- Proof-of-work Variant -- Consortium</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
@@ -13174,32 +12960,32 @@
         <v>1</v>
       </c>
       <c r="G61" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H61" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="I61" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I61" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J61" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N61" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- account -- on-chain -- Proof-of-stake -- Public</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>178</v>
       </c>
@@ -13219,32 +13005,32 @@
         <v>1</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K62" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M62" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="N62" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>180</v>
       </c>
@@ -13264,32 +13050,32 @@
         <v>1</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J63" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K63" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="K63" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="L63" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N63" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>182</v>
       </c>
@@ -13309,32 +13095,32 @@
         <v>1</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K64" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M64" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L64" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M64" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="N64" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>184</v>
       </c>
@@ -13351,35 +13137,35 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K65" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M65" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M65" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="N65" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>186</v>
       </c>
@@ -13399,32 +13185,32 @@
         <v>1</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K66" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M66" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="N66" s="16" t="str">
         <f t="shared" si="0"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>189</v>
       </c>
@@ -13444,32 +13230,32 @@
         <v>1</v>
       </c>
       <c r="G67" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="I67" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I67" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J67" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N67" s="16" t="str">
         <f t="shared" ref="N67:N91" si="1">_xlfn.TEXTJOIN(" -- ", TRUE, G67:K67)</f>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>192</v>
       </c>
@@ -13489,32 +13275,32 @@
         <v>1</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="N68" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- TX Log -- installed -- YAC -- Consortium</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>195</v>
       </c>
@@ -13534,32 +13320,32 @@
         <v>1</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I69" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M69" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="N69" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- TX Log -- Installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="192" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>197</v>
       </c>
@@ -13579,32 +13365,32 @@
         <v>1</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K70" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M70" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M70" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="N70" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>200</v>
       </c>
@@ -13624,32 +13410,32 @@
         <v>1</v>
       </c>
       <c r="G71" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H71" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="I71" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I71" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J71" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N71" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Private</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>203</v>
       </c>
@@ -13669,32 +13455,32 @@
         <v>2</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H72" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="J72" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="I72" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>481</v>
-      </c>
       <c r="K72" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M72" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M72" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="N72" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- account &amp; UTXO -- on-chain -- PoW+PoS; proof-of-rule -- Public</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>205</v>
       </c>
@@ -13714,32 +13500,32 @@
         <v>1</v>
       </c>
       <c r="G73" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H73" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="I73" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N73" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- account -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>208</v>
       </c>
@@ -13759,32 +13545,32 @@
         <v>1</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H74" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="J74" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="I74" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="J74" s="6" t="s">
+      <c r="K74" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="K74" s="6" t="s">
+      <c r="L74" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M74" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L74" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M74" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="N74" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-rule -- Public</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>211</v>
       </c>
@@ -13804,32 +13590,32 @@
         <v>1</v>
       </c>
       <c r="G75" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H75" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="I75" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I75" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J75" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N75" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>214</v>
       </c>
@@ -13849,32 +13635,32 @@
         <v>1</v>
       </c>
       <c r="G76" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="I76" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I76" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J76" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N76" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- public</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>217</v>
       </c>
@@ -13894,32 +13680,32 @@
         <v>1</v>
       </c>
       <c r="G77" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="I77" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I77" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J77" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N77" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- private</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>219</v>
       </c>
@@ -13939,32 +13725,32 @@
         <v>1</v>
       </c>
       <c r="G78" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="I78" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I78" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J78" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N78" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- public</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>222</v>
       </c>
@@ -13981,35 +13767,35 @@
         <v>12</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K79" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M79" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L79" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M79" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="N79" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>224</v>
       </c>
@@ -14029,32 +13815,32 @@
         <v>1</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K80" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M80" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L80" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M80" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="N80" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>226</v>
       </c>
@@ -14074,32 +13860,32 @@
         <v>1</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I81" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M81" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M81" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="N81" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- TX Log -- Installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>229</v>
       </c>
@@ -14119,32 +13905,32 @@
         <v>1</v>
       </c>
       <c r="G82" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H82" s="6" t="s">
+      <c r="I82" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I82" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J82" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N82" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- account -- on-chain -- Proof-of-stake -- Private</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>232</v>
       </c>
@@ -14164,32 +13950,32 @@
         <v>1</v>
       </c>
       <c r="G83" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H83" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="I83" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N83" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- account -- N/A -- Proof-of-work Variant -- public</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>234</v>
       </c>
@@ -14209,32 +13995,32 @@
         <v>1</v>
       </c>
       <c r="G84" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="I84" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I84" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J84" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K84" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M84" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L84" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M84" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="N84" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>238</v>
       </c>
@@ -14254,32 +14040,32 @@
         <v>1</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I85" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M85" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="L85" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M85" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="N85" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- TX Log -- Installed -- PBFT -- Consortium</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>241</v>
       </c>
@@ -14299,32 +14085,32 @@
         <v>1</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="N86" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- UTXO -- N/A -- PoW+PoS -- Public</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>243</v>
       </c>
@@ -14344,32 +14130,32 @@
         <v>1</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K87" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M87" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="L87" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M87" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="N87" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- UTXO -- N/A -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>246</v>
       </c>
@@ -14389,32 +14175,32 @@
         <v>1</v>
       </c>
       <c r="G88" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H88" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="I88" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I88" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J88" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N88" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- public</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>249</v>
       </c>
@@ -14434,32 +14220,32 @@
         <v>1</v>
       </c>
       <c r="G89" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H89" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="I89" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I89" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J89" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N89" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>251</v>
       </c>
@@ -14479,32 +14265,32 @@
         <v>1</v>
       </c>
       <c r="G90" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H90" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="I90" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I90" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J90" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N90" s="16" t="str">
         <f t="shared" si="1"/>
         <v>blockchain -- account -- on-chain -- Proof-of-work Variant -- Public</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="144" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>253</v>
       </c>
@@ -14524,25 +14310,25 @@
         <v>1</v>
       </c>
       <c r="G91" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H91" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H91" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="I91" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N91" s="16" t="str">
         <f t="shared" si="1"/>
@@ -14550,37 +14336,44 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:M91" xr:uid="{08206A0E-F948-0B41-B028-7BDBA01400CE}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="None"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A59274-46C6-224F-B43F-BF35503DCBD2}">
-  <dimension ref="A3:B30"/>
+  <dimension ref="A3:B9"/>
   <sheetViews>
-    <sheetView windowProtection="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView windowProtection="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="B4" s="20">
         <v>25</v>
@@ -14588,7 +14381,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="B5" s="20">
         <v>20</v>
@@ -14596,7 +14389,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B6" s="20">
         <v>8</v>
@@ -14604,7 +14397,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="B7" s="20">
         <v>7</v>
@@ -14612,7 +14405,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="B8" s="20">
         <v>5</v>
@@ -14620,178 +14413,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B9" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="B10" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="B11" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="B12" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="B13" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="B14" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="B15" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="B16" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="B17" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="B18" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="B19" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="B20" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="B21" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="B22" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="B23" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="B24" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="B25" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>470</v>
-      </c>
-      <c r="B26" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="B27" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="B28" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="B29" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="B30" s="20">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -14807,7 +14432,7 @@
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F46" sqref="F46"/>
+      <selection pane="topRight" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14837,10 +14462,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -14860,10 +14485,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -14883,10 +14508,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -14906,10 +14531,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -14929,13 +14554,13 @@
         <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -14952,10 +14577,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -14975,10 +14600,10 @@
         <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -14998,10 +14623,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
@@ -15021,10 +14646,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -15044,10 +14669,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -15067,10 +14692,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15090,10 +14715,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15113,10 +14738,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -15136,10 +14761,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15159,10 +14784,10 @@
         <v>8</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15182,10 +14807,10 @@
         <v>8</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -15205,10 +14830,10 @@
         <v>23</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15228,10 +14853,10 @@
         <v>8</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15251,10 +14876,10 @@
         <v>8</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15274,10 +14899,10 @@
         <v>8</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15297,10 +14922,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -15320,10 +14945,10 @@
         <v>8</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -15343,10 +14968,10 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -15366,13 +14991,13 @@
         <v>8</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -15389,10 +15014,10 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -15412,10 +15037,10 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -15435,10 +15060,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15458,10 +15083,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -15481,10 +15106,10 @@
         <v>8</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15504,10 +15129,10 @@
         <v>23</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15527,10 +15152,10 @@
         <v>8</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -15550,10 +15175,10 @@
         <v>12</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -15573,10 +15198,10 @@
         <v>12</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -15596,10 +15221,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="160" hidden="1" x14ac:dyDescent="0.2">
@@ -15619,10 +15244,10 @@
         <v>8</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -15642,10 +15267,10 @@
         <v>8</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15665,10 +15290,10 @@
         <v>12</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15688,10 +15313,10 @@
         <v>8</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15711,10 +15336,10 @@
         <v>8</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15734,10 +15359,10 @@
         <v>8</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15757,10 +15382,10 @@
         <v>23</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15780,10 +15405,10 @@
         <v>8</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15803,10 +15428,10 @@
         <v>8</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15826,10 +15451,10 @@
         <v>8</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15849,10 +15474,10 @@
         <v>12</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -15872,10 +15497,10 @@
         <v>8</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -15895,10 +15520,10 @@
         <v>8</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -15918,10 +15543,10 @@
         <v>23</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -15941,10 +15566,10 @@
         <v>12</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -15964,10 +15589,10 @@
         <v>12</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -15987,10 +15612,10 @@
         <v>12</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
@@ -16010,10 +15635,10 @@
         <v>8</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -16033,10 +15658,10 @@
         <v>8</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -16056,10 +15681,10 @@
         <v>8</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
@@ -16079,10 +15704,10 @@
         <v>8</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -16102,10 +15727,10 @@
         <v>12</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -16125,10 +15750,10 @@
         <v>8</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -16148,10 +15773,10 @@
         <v>8</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -16171,10 +15796,10 @@
         <v>8</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -16194,10 +15819,10 @@
         <v>12</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16217,10 +15842,10 @@
         <v>12</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -16240,10 +15865,10 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16263,10 +15888,10 @@
         <v>12</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -16286,10 +15911,10 @@
         <v>12</v>
       </c>
       <c r="F64" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -16309,10 +15934,10 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
@@ -16332,10 +15957,10 @@
         <v>8</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -16355,10 +15980,10 @@
         <v>8</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -16378,13 +16003,13 @@
         <v>23</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>195</v>
       </c>
@@ -16401,10 +16026,10 @@
         <v>8</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="192" hidden="1" x14ac:dyDescent="0.2">
@@ -16424,10 +16049,10 @@
         <v>8</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
@@ -16447,10 +16072,10 @@
         <v>8</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="96" x14ac:dyDescent="0.2">
@@ -16470,10 +16095,10 @@
         <v>12</v>
       </c>
       <c r="F72" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G72" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -16493,10 +16118,10 @@
         <v>12</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -16516,10 +16141,10 @@
         <v>12</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16539,10 +16164,10 @@
         <v>8</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -16562,10 +16187,10 @@
         <v>8</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -16585,10 +16210,10 @@
         <v>8</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -16608,10 +16233,10 @@
         <v>8</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16631,10 +16256,10 @@
         <v>12</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16654,10 +16279,10 @@
         <v>12</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -16677,10 +16302,10 @@
         <v>8</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -16700,10 +16325,10 @@
         <v>8</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
@@ -16723,10 +16348,10 @@
         <v>12</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -16746,10 +16371,10 @@
         <v>237</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -16769,10 +16394,10 @@
         <v>12</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16792,10 +16417,10 @@
         <v>12</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -16815,10 +16440,10 @@
         <v>8</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16838,10 +16463,10 @@
         <v>12</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -16861,10 +16486,10 @@
         <v>12</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
@@ -16884,10 +16509,10 @@
         <v>12</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
@@ -16907,21 +16532,24 @@
         <v>8</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F91" xr:uid="{7C9537B3-B8DC-FB4E-AD96-B4C958A676AF}">
-    <filterColumn colId="0">
+  <autoFilter ref="F1:G91" xr:uid="{A5A331B6-42DA-534A-9285-D07923F528C9}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Exchange of services requires off-chain validation; Early blockchains are vulnerable to mining attacks"/>
+        <filter val="Create a local side chain"/>
+        <filter val="Hierarchical mining"/>
+        <filter val="Integrate side-chains with a consortium chain."/>
+        <filter val="Proof-of-service; 2-hop blockchain"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>